--- a/Data/Excel_Long/camino_transportation_long.xlsx
+++ b/Data/Excel_Long/camino_transportation_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F825"/>
+  <dimension ref="A1:F835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>599</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1325</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>201</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2864</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1282</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14172</v>
+        <v>28344</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2363</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14312</v>
+        <v>28624</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3476</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>176</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15632</v>
+        <v>31264</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3404</v>
+        <v>6808</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>345</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28124</v>
+        <v>56248</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5229</v>
+        <v>10458</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>385</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>39977</v>
+        <v>79954</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3191</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>243</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>19312</v>
+        <v>38624</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1496</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>106</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>12951</v>
+        <v>25902</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>308</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4066</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>183</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3555</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>244</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>539</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>321</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2790</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>329</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2968</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1920</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>7348</v>
+        <v>14696</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3039</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>9560</v>
+        <v>19120</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2918</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>15810</v>
+        <v>31620</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4991</v>
+        <v>9982</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>19766</v>
+        <v>39532</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2348</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>9807</v>
+        <v>19614</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>905</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5953</v>
+        <v>11906</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>118</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1269</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>621</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>299</v>
+        <v>598</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>329</v>
+        <v>658</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1020</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="94">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1135</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="96">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6289</v>
+        <v>12578</v>
       </c>
     </row>
     <row r="98">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1862</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="100">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>8254</v>
+        <v>16508</v>
       </c>
     </row>
     <row r="102">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3112</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="104">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>9850</v>
+        <v>19700</v>
       </c>
     </row>
     <row r="106">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2925</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="108">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>15732</v>
+        <v>31464</v>
       </c>
     </row>
     <row r="110">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5274</v>
+        <v>10548</v>
       </c>
     </row>
     <row r="111">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20856</v>
+        <v>41712</v>
       </c>
     </row>
     <row r="113">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2749</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="115">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>10687</v>
+        <v>21374</v>
       </c>
     </row>
     <row r="117">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>991</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="119">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6681</v>
+        <v>13362</v>
       </c>
     </row>
     <row r="121">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>168</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1574</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="125">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>782</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="129">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>638</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="133">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1530</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="136">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1283</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="137">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6795</v>
+        <v>13590</v>
       </c>
     </row>
     <row r="139">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2197</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="141">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142">
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10701</v>
+        <v>21402</v>
       </c>
     </row>
     <row r="143">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3136</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="145">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>11999</v>
+        <v>23998</v>
       </c>
     </row>
     <row r="147">
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3150</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="149">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>16959</v>
+        <v>33918</v>
       </c>
     </row>
     <row r="151">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5297</v>
+        <v>10594</v>
       </c>
     </row>
     <row r="153">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>21899</v>
+        <v>43798</v>
       </c>
     </row>
     <row r="155">
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2925</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="157">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>12306</v>
+        <v>24612</v>
       </c>
     </row>
     <row r="159">
@@ -20234,6 +20234,246 @@
       </c>
       <c r="F825" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D826" t="n">
+        <v>11</v>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="F826" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D827" t="n">
+        <v>11</v>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>Caballo</t>
+        </is>
+      </c>
+      <c r="F827" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D828" t="n">
+        <v>11</v>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>Pie</t>
+        </is>
+      </c>
+      <c r="F828" t="n">
+        <v>10895</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D829" t="n">
+        <v>11</v>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>Silla de ruedas</t>
+        </is>
+      </c>
+      <c r="F829" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D830" t="n">
+        <v>11</v>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>Vela</t>
+        </is>
+      </c>
+      <c r="F830" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D831" t="n">
+        <v>12</v>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="F831" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D832" t="n">
+        <v>12</v>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>Pie</t>
+        </is>
+      </c>
+      <c r="F832" t="n">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D833" t="n">
+        <v>12</v>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>Silla de ruedas</t>
+        </is>
+      </c>
+      <c r="F833" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D834" t="n">
+        <v>12</v>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>Sin establecer</t>
+        </is>
+      </c>
+      <c r="F834" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D835" t="n">
+        <v>12</v>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>Vela</t>
+        </is>
+      </c>
+      <c r="F835" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Long/camino_transportation_long.xlsx
+++ b/Data/Excel_Long/camino_transportation_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F835"/>
+  <dimension ref="A1:F838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1198</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2650</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5728</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2564</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28344</v>
+        <v>14172</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4726</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>28624</v>
+        <v>14312</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6952</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>352</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>31264</v>
+        <v>15632</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6808</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>690</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>56248</v>
+        <v>28124</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10458</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>770</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>79954</v>
+        <v>39977</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6382</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>486</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>38624</v>
+        <v>19312</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2992</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>212</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25902</v>
+        <v>12951</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>616</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>8132</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>366</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7110</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>488</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1078</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>642</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5580</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>658</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5936</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3840</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>14696</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6078</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>19120</v>
+        <v>9560</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5836</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>148</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>31620</v>
+        <v>15810</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>9982</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>39532</v>
+        <v>19766</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4696</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>19614</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1810</v>
+        <v>905</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>11906</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>236</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2538</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1242</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>598</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>658</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2040</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="94">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2270</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="96">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>12578</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="98">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3724</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="100">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>16508</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="102">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>6224</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="104">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>19700</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="106">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5850</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="108">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>31464</v>
+        <v>15732</v>
       </c>
     </row>
     <row r="110">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10548</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="111">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>41712</v>
+        <v>20856</v>
       </c>
     </row>
     <row r="113">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5498</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="115">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>21374</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="117">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1982</v>
+        <v>991</v>
       </c>
     </row>
     <row r="119">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>13362</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="121">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>336</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3148</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="125">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1564</v>
+        <v>782</v>
       </c>
     </row>
     <row r="129">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1276</v>
+        <v>638</v>
       </c>
     </row>
     <row r="133">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>276</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3060</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="136">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2566</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="137">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>13590</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="139">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4394</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="141">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>21402</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="143">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6272</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="145">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>23998</v>
+        <v>11999</v>
       </c>
     </row>
     <row r="147">
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>6300</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="149">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>33918</v>
+        <v>16959</v>
       </c>
     </row>
     <row r="151">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10594</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="153">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>43798</v>
+        <v>21899</v>
       </c>
     </row>
     <row r="155">
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5850</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="157">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>24612</v>
+        <v>12306</v>
       </c>
     </row>
     <row r="159">
@@ -20474,6 +20474,78 @@
       </c>
       <c r="F835" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D836" t="n">
+        <v>1</v>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="F836" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D837" t="n">
+        <v>1</v>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>Caballo</t>
+        </is>
+      </c>
+      <c r="F837" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D838" t="n">
+        <v>1</v>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>Pie</t>
+        </is>
+      </c>
+      <c r="F838" t="n">
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
